--- a/user_study/Survey_Result- Vulnerability Management.xlsx
+++ b/user_study/Survey_Result- Vulnerability Management.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Summary" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -240,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -254,6 +254,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -356,17 +362,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -376,10 +382,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
